--- a/Client/Luban/Datas/__tables__.xlsx
+++ b/Client/Luban/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>base_1.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>template.TbBase_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_2.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -627,6 +639,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
